--- a/resources/Comparable-Company-Analysis-Template.xlsx
+++ b/resources/Comparable-Company-Analysis-Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\!CFI Drive\Website - wordpress\Downloads\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2934AE72-B5BC-4457-9811-0C7972C3A25D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A708859-F380-0446-8A78-E296885BF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_CIQHiddenCacheSheet" sheetId="8" state="veryHidden" r:id="rId1"/>
-    <sheet name="Cover Page" sheetId="9" r:id="rId2"/>
-    <sheet name="Comps Table" sheetId="1" r:id="rId3"/>
+    <sheet name="Comps Table Test" sheetId="1" r:id="rId2"/>
+    <sheet name="Comps Table Original" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"2cd8126d-26c3-430c-b7fa-a069e3a1fc62"</definedName>
@@ -42,7 +42,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="1" hidden="1">41666.7099189815</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">41743.6402893519</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -50,14 +49,26 @@
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Cover Page'!$A$1:$P$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Company Name</t>
   </si>
@@ -191,31 +202,10 @@
     <t>https://corporatefinanceinstitute.com/</t>
   </si>
   <si>
-    <t>Strictly Confidential</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This Excel model is for educational purposes only and should not be used for any other reason.</t>
-  </si>
-  <si>
-    <t>All content is Copyright material of CFI Education Inc.</t>
-  </si>
-  <si>
-    <t>© 2019 CFI Education Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All rights reserved.  The contents of this publication, including but not limited to all written material, content layout, images, formulas, and code, are protected under international copyright and trademark laws.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No part of this publication may be modified, manipulated, reproduced, distributed, or transmitted in any form by any means, including photocopying, recording, or other electronic or mechanical methods, </t>
-  </si>
-  <si>
-    <t>without prior written permission of the publisher, except in the case of certain noncommercial uses permitted by copyright law.</t>
-  </si>
-  <si>
-    <t>Comparable Company Analysis Template</t>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>EV/Revenue</t>
   </si>
 </sst>
 </file>
@@ -223,12 +213,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0\x"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,28 +335,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,20 +367,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED942D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,35 +385,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -483,24 +438,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -509,24 +461,6 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -554,57 +488,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>714374</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3446303" cy="1540510"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9DAAB2-5921-4111-9C09-FAB77FA18799}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1471294" y="745490"/>
-          <a:ext cx="3446303" cy="1540510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -649,6 +532,62 @@
         <a:xfrm>
           <a:off x="647701" y="5158514"/>
           <a:ext cx="742950" cy="813659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781051</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84BE569-54BD-4E49-A078-0B478478FE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736601" y="4371114"/>
+          <a:ext cx="742950" cy="788259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,9 +924,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>15</v>
       </c>
@@ -1040,498 +979,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACDB8D2-D7D1-48B3-ADFE-03054E84B69D}">
-  <dimension ref="B1:O44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="30" customWidth="1"/>
-    <col min="4" max="22" width="11" style="30" customWidth="1"/>
-    <col min="23" max="25" width="9.109375" style="30"/>
-    <col min="26" max="26" width="9.109375" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="2:15" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="40"/>
-    </row>
-    <row r="24" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
-      <c r="C24" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="40"/>
-    </row>
-    <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="40"/>
-    </row>
-    <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="40"/>
-    </row>
-    <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-    </row>
-    <row r="28" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{B4428C77-9B9D-444B-9C2B-46C19F228AB0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="1" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1028,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
         <v>40</v>
@@ -1573,7 +1049,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>11</v>
@@ -1596,7 +1072,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>1</v>
@@ -1609,7 +1085,7 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>4</v>
@@ -1622,7 +1098,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="14" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>8</v>
@@ -1635,7 +1111,7 @@
       </c>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1665,41 +1141,41 @@
       <c r="L6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>38.14</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>168040.75902</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>185121.75902</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
         <v>46854</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <v>13104</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>11127</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>7380.5</v>
       </c>
       <c r="K7" s="2"/>
@@ -1720,30 +1196,30 @@
         <v>22.76820798319897</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>81.37</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>123883.05842</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>143824.05841999999</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28">
         <v>66415</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>12344</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>9878</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>5618</v>
       </c>
       <c r="K8" s="2"/>
@@ -1764,30 +1240,30 @@
         <v>22.051096194375223</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>52.31</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>10325.889380000001</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>12763.889380000001</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28">
         <v>5997</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>1319</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>1103</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <v>620</v>
       </c>
       <c r="K9" s="2"/>
@@ -1808,30 +1284,30 @@
         <v>16.654660290322582</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>69.62</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>11617.97674</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>11004.380740000001</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28">
         <v>2246.4279999999999</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>606.47799999999995</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>583.71600000000001</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>357.48687999999999</v>
       </c>
       <c r="K10" s="2"/>
@@ -1852,30 +1328,30 @@
         <v>32.499029726629409</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>20.81</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>964.18973000000005</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>967.52472999999998</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
         <v>644.66</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>77.614999999999995</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>66.138999999999996</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>40.990630000000003</v>
       </c>
       <c r="K11" s="2"/>
@@ -1896,7 +1372,7 @@
         <v>23.522198365821652</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1912,116 +1388,116 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21">
         <f>AVERAGE(L7:L11)</f>
         <v>2.9288782592179503</v>
       </c>
-      <c r="M13" s="22">
-        <f t="shared" ref="M13:O13" si="4">AVERAGE(M7:M11)</f>
+      <c r="M13" s="21">
+        <f>AVERAGE(M7:M11)</f>
         <v>13.213164077995524</v>
       </c>
-      <c r="N13" s="22">
-        <f t="shared" si="4"/>
+      <c r="N13" s="21">
+        <f>AVERAGE(N7:N11)</f>
         <v>15.250024740812815</v>
       </c>
-      <c r="O13" s="22">
-        <f t="shared" si="4"/>
+      <c r="O13" s="21">
+        <f>AVERAGE(O7:O11)</f>
         <v>23.499038512069568</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21">
         <f>MEDIAN(L7:L11)</f>
         <v>2.1655357738462695</v>
       </c>
-      <c r="M14" s="22">
-        <f t="shared" ref="M14:O14" si="5">MEDIAN(M7:M11)</f>
+      <c r="M14" s="21">
+        <f>MEDIAN(M7:M11)</f>
         <v>12.465692585196161</v>
       </c>
-      <c r="N14" s="22">
-        <f t="shared" si="5"/>
+      <c r="N14" s="21">
+        <f>MEDIAN(N7:N11)</f>
         <v>14.628656768321264</v>
       </c>
-      <c r="O14" s="22">
-        <f t="shared" si="5"/>
+      <c r="O14" s="21">
+        <f>MEDIAN(O7:O11)</f>
         <v>22.76820798319897</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B26" s="26" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2031,4 +1507,535 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83185C62-718D-A740-AD7A-16254ED34945}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="27">
+        <v>38.14</v>
+      </c>
+      <c r="D7" s="28">
+        <v>168040.75902</v>
+      </c>
+      <c r="E7" s="28">
+        <v>185121.75902</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
+        <v>46854</v>
+      </c>
+      <c r="H7" s="28">
+        <v>13104</v>
+      </c>
+      <c r="I7" s="28">
+        <v>11127</v>
+      </c>
+      <c r="J7" s="28">
+        <v>7380.5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3">
+        <f>E7/G7</f>
+        <v>3.9510342557732532</v>
+      </c>
+      <c r="M7" s="3">
+        <f>E7/H7</f>
+        <v>14.127118362332112</v>
+      </c>
+      <c r="N7" s="3">
+        <f>E7/I7</f>
+        <v>16.637167162757258</v>
+      </c>
+      <c r="O7" s="3">
+        <f>D7/J7</f>
+        <v>22.76820798319897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="27">
+        <v>81.37</v>
+      </c>
+      <c r="D8" s="28">
+        <v>123883.05842</v>
+      </c>
+      <c r="E8" s="28">
+        <v>143824.05841999999</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28">
+        <v>66415</v>
+      </c>
+      <c r="H8" s="28">
+        <v>12344</v>
+      </c>
+      <c r="I8" s="28">
+        <v>9878</v>
+      </c>
+      <c r="J8" s="28">
+        <v>5618</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3">
+        <f t="shared" ref="L8:L11" si="0">E8/G8</f>
+        <v>2.1655357738462695</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:M11" si="1">E8/H8</f>
+        <v>11.651333313350614</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N11" si="2">E8/I8</f>
+        <v>14.560038309374367</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" ref="O8:O11" si="3">D8/J8</f>
+        <v>22.051096194375223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="27">
+        <v>52.31</v>
+      </c>
+      <c r="D9" s="28">
+        <v>10325.889380000001</v>
+      </c>
+      <c r="E9" s="28">
+        <v>12763.889380000001</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28">
+        <v>5997</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1319</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1103</v>
+      </c>
+      <c r="J9" s="28">
+        <v>620</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1283790862097716</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>9.6769441849886277</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>11.571975865820489</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="3"/>
+        <v>16.654660290322582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="27">
+        <v>69.62</v>
+      </c>
+      <c r="D10" s="28">
+        <v>11617.97674</v>
+      </c>
+      <c r="E10" s="28">
+        <v>11004.380740000001</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28">
+        <v>2246.4279999999999</v>
+      </c>
+      <c r="H10" s="28">
+        <v>606.47799999999995</v>
+      </c>
+      <c r="I10" s="28">
+        <v>583.71600000000001</v>
+      </c>
+      <c r="J10" s="28">
+        <v>357.48687999999999</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8986127042576042</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>18.144731944110095</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>18.852285597790708</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="3"/>
+        <v>32.499029726629409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="27">
+        <v>20.81</v>
+      </c>
+      <c r="D11" s="28">
+        <v>964.18973000000005</v>
+      </c>
+      <c r="E11" s="28">
+        <v>967.52472999999998</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
+        <v>644.66</v>
+      </c>
+      <c r="H11" s="28">
+        <v>77.614999999999995</v>
+      </c>
+      <c r="I11" s="28">
+        <v>66.138999999999996</v>
+      </c>
+      <c r="J11" s="28">
+        <v>40.990630000000003</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5008294760028542</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>12.465692585196161</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>14.628656768321264</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="3"/>
+        <v>23.522198365821652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21">
+        <f>AVERAGE(L7:L11)</f>
+        <v>2.9288782592179503</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" ref="M13:O13" si="4">AVERAGE(M7:M11)</f>
+        <v>13.213164077995524</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="4"/>
+        <v>15.250024740812815</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="4"/>
+        <v>23.499038512069568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21">
+        <f>MEDIAN(L7:L11)</f>
+        <v>2.1655357738462695</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" ref="M14:O14" si="5">MEDIAN(M7:M11)</f>
+        <v>12.465692585196161</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="5"/>
+        <v>14.628656768321264</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="5"/>
+        <v>22.76820798319897</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{43719BCB-47F5-9549-87F6-426C240ED92A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/resources/Comparable-Company-Analysis-Template.xlsx
+++ b/resources/Comparable-Company-Analysis-Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencelim/Projects/python-projects/pyfinny/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A708859-F380-0446-8A78-E296885BF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C063508-FA70-C64D-AB2C-5DAA38E10251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="8" state="veryHidden" r:id="rId1"/>
-    <sheet name="Comps Table Test" sheetId="1" r:id="rId2"/>
-    <sheet name="Comps Table Original" sheetId="10" r:id="rId3"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="1" state="veryHidden" r:id="rId1"/>
+    <sheet name="Comparables" sheetId="2" r:id="rId2"/>
+    <sheet name="Comps Table Original" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"2cd8126d-26c3-430c-b7fa-a069e3a1fc62"</definedName>
@@ -70,142 +70,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
+    <t>AwABTAVMT0NBTAFI/////wFQPgAAACxDSVEuTkFTREFRR1M6TU5TVC5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAACxPgUAAgAAAAsxMTYxNy45NzY3NAEGAAAABQAAAAExAQAAAAoxNjYxMjI3MjI2AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAJMy8xOS8yMDE0TEhDuK8R0QhT00YnshHRCDFDSVEuTkFTREFRR1M6TU5TVC5JUV9OSV9OT1JNLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAALE+BQACAAAACjM1Ny40ODY4NzUBCAAAAAUAAAABMQEAAAAKMTY2MTIyNzE2MQMAAAADMTYwAgAAAAQ0Mzc4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATBw0vpIsRHRCFPTRieyEdEIHUNJUS5OWVNFOktPLklRX01BUktFVENBUC4uVVNEAQAAABJoAAACAAAADDE2ODA0MC43NTkwMgEGAAAABQAAAAExAQAAAAoxNjYwNzU3ODQzAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAJMy8xOS8yMDE0TEhDuK8R0Qg3fBTtsRHRCDNDSVEuTllTRTpEUFMuSVFfRElMVVRfRVBTX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAxxqNAAIAAAAIMy4wMzE3ODQBCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATCD2ZMZsRHRCIC3mhmxEdEIKkNJUS5OWVNFOlBFUC5JUV9ESUxVVF9FUFNfTk9</t>
+  </si>
+  <si>
+    <t>STS4yMDAwLi4uLlVTRAEAAABWgAAAAgAAAAgzLjYwMTI4MgEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAABDQzODAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMjgvMjAxMwkAAAABMOXbLBexEdEIN300F7ER0QgmQ0lRLk5BU0RBUUdTOk1OU1QuSVFfVEVWLjMvMTkvMjAxNC5VU0QBAAAAsT4FAAIAAAALMTEwMDQuMzgwNzQBBgAAAAUAAAABMQEAAAAKMTY2MTIyNzIyNgMAAAADMTYwAgAAAAYxMDAwNjAEAAAAATAHAAAACTMvMTkvMjAxNBQVWmCwEdEIMYVGJ7IR0QggQ0lRLk5ZU0U6UEVQLklRX0VCSVQuMjAwMC4uLi5VU0QBAAAAVoAAAAIAAAAEOTg3OAEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8yOC8yMDEzCQAAAAEw16lM67AR0QiQ61LrsBHRCB5DSVEuT1RDUEs6SlNEQS5JUV9DT01QQU5ZX05BTUUBAAAAaFYGAAMAAAAOSm9uZXMgU29kYSBDby4ADZZ0O68R0QidZhXtsRHRCCxDSVEuTkFTREFRR1M6RklaWi5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAACa6AQAAgAAAAk5NjQuMTg5NzMBBgAAAAUAAAABMQEAAAAKMTY2MTQwMzUyNAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACTMvMTkvMjAxNExIQ7ivEdEIU9NGJ7IR0QguQ0lRLk5BU0RBUUdTOkZJWlouSVFfRUJJVC4yMDAwLj</t>
+  </si>
+  <si>
+    <t>MvMTkvMjAxNC4uLlVTRAEAAACa6AQAAgAAAAY2Ni4xMzkBCAAAAAUAAAABMQEAAAAKMTY2MTQwMzg0NQMAAAADMTYwAgAAAAM0MDAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEw+/vx7rAR0QhCrEYnshHRCDNDSVEuTllTRTpQRVAuSVFfRElMVVRfRVBTX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAVoAAAAIAAAAIMy42MDEyODIBCAAAAAUAAAABMQEAAAAKMTY1ODM0MjI1OAMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzI4LzIwMTMJAAAAATDl2ywXsRHRCDd9NBexEdEIJ0NJUS5OWVNFOkRQUy5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAADHGo0AAgAAAAsxMDMyNS44ODkzOAEGAAAABQAAAAExAQAAAAoxNjU5NDIxNjE1AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAJMy8xOS8yMDE0TEhDuK8R0QhCrEYnshHRCCxDSVEuTllTRTpQRVAuSVFfTklfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAABWgAAAAgAAAAQ1NjE4AQgAAAAFAAAAATEBAAAACjE2NTgzNDIyNTgDAAAAAzE2MAIAAAAENDM3OAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8yOC8yMDEzCQAAAAEwLkDjPrER0QhCrEYnshHRCCNDSVEuT1RDUEs6SlNEQS5JUV9URVYuMy8xOS8yMDE0LlVTRAEAAABoVgYAAgAAAAkxNi4zNzE3OTEBBgAAAAUAAAABMQEAA</t>
+  </si>
+  <si>
+    <t>AAKMTY2MTY3NTAwNgMAAAADMTYwAgAAAAYxMDAwNjAEAAAAATAHAAAACTMvMTkvMjAxNBQVWmCwEdEISKMU7bER0QgpQ0lRLk5ZU0U6S08uSVFfRElMVVRfRVBTX05PUk0uMjAwMC4uLi5VU0QBAAAAEmgAAAIAAAAIMS42MzY4MzcBCAAAAAUAAAABMQEAAAAKMTY2MDc1NjM1NQMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATCD2ZMZsRHRCG+QmhmxEdEIM0NJUS5OQVNEQVFHUzpNTlNULklRX1RPVEFMX1JFVi4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAACxPgUAAgAAAAgyMjQ2LjQyOAEIAAAABQAAAAExAQAAAAoxNjYxMjI3MTYxAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATBcdHmtsBHRCFPTRieyEdEIJkNJUS5OQVNEQVFHUzpGSVpaLklRX1RFVi4zLzE5LzIwMTQuVVNEAQAAAJroBAACAAAACTk2Ny41MjQ3MwEGAAAABQAAAAExAQAAAAoxNjYxNDAzNTI0AwAAAAMxNjACAAAABjEwMDA2MAQAAAABMAcAAAAJMy8xOS8yMDE0FBVaYLAR0QgxhUYnshHRCCxDSVEuTllTRTpEUFMuSVFfTklfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAADHGo0AAgAAAAM2MjABCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAQ0Mzc4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJ</t>
+  </si>
+  <si>
+    <t>AAAAATBw0vpIsRHRCEKsRieyEdEII0NJUS5OWVNFOlBFUC5JUV9OSV9OT1JNLjIwMDAuLi4uVVNEAQAAAFaAAAACAAAABDU2MTgBCAAAAAUAAAABMQEAAAAKMTY1ODM0MjI1OAMAAAADMTYwAgAAAAQ0Mzc4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzI4LzIwMTMJAAAAATAuQOM+sRHRCE1s6j6xEdEILkNJUS5OWVNFOkRQUy5JUV9UT1RBTF9SRVYuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAxxqNAAIAAAAENTk5NwEIAAAABQAAAAExAQAAAAoxNjU5NDIxNTAxAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATBcdHmtsBHRCFPTRieyEdEIK0NJUS5OWVNFOlBFUC5JUV9MQVNUU0FMRVBSSUNFLjMvMTkvMjAxNC5VU0QBAAAAVoAAAAIAAAAFODEuMzcAp8xSi68R0Qhk+kYnshHRCDNDSVEuTkFTREFRR1M6RklaWi5JUV9UT1RBTF9SRVYuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAmugEAAIAAAAGNjQ0LjY2AQgAAAAFAAAAATEBAAAACjE2NjE0MDM4NDUDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEwXHR5rbAR0QhT00YnshHRCCtDSVEuTllTRTpEUFMuSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAMcajQACAAAABDEzMTkBCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAQ</t>
+  </si>
+  <si>
+    <t>0MDUxBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATDu+DTdsBHRCDGFRieyEdEIIENJUS5OWVNFOktPLklRX1RFVi4zLzE5LzIwMTQuVVNEAQAAABJoAAACAAAADDE4NTEyMS43NTkwMgEGAAAABQAAAAExAQAAAAoxNjYwNzU3ODQzAwAAAAMxNjACAAAABjEwMDA2MAQAAAABMAcAAAAJMy8xOS8yMDE0FBVaYLAR0QggXkYnshHRCDVDSVEuT1RDUEs6SlNEQS5JUV9ESUxVVF9FUFNfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAABoVgYAAgAAAAktMC4wMjk2MDMBCAAAAAUAAAABMQEAAAAKMTY2MjUxMTgyNgMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATCD2ZMZsRHRCJHemhmxEdEIG0NJUS5OWVNFOktPLklRX0NPTVBBTllfTkFNRQEAAAASaAAAAwAAABVUaGUgQ29jYS1Db2xhIENvbXBhbnkADZZ0O68R0Qhk+kYnshHRCDhDSVEuTkFTREFRR1M6RklaWi5JUV9ESUxVVF9FUFNfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAACa6AQAAgAAAAgwLjg4MTMxOQEIAAAABQAAAAExAQAAAAoxNjYxNDAzODQ1AwAAAAMxNjACAAAABDQzODAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEwg9mTGbER0QiAt5oZsRHRCCZDSVEuTllTRTpLTy5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAAASaAAAAgAAAA</t>
+  </si>
+  <si>
+    <t>wxNjgwNDAuNzU5MDIBBgAAAAUAAAABMQEAAAAKMTY2MDc1Nzg0MwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACTMvMTkvMjAxNExIQ7ivEdEIQqxGJ7IR0QgqQ0lRLk5ZU0U6S08uSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQAAABJoAAACAAAABTM4LjE0AENdCJCvEdEIZPpGJ7IR0QgpQ0lRLk5ZU0U6UEVQLklRX0VCSVQuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAVoAAAAIAAAAEOTg3OAEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8yOC8yMDEzCQAAAAEw16lM67AR0QgxhUYnshHRCDJDSVEuTllTRTpLTy5JUV9ESUxVVF9FUFNfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAAASaAAAAgAAAAgxLjYzNjgzNwEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAABDQzODAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMIPZkxmxEdEIgLeaGbER0QgtQ0lRLk9UQ1BLOkpTREEuSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQAAAGhWBgACAAAABDAuNDYAQ10IkK8R0QiMPxXtsRHRCCtDSVEuTllTRTpEUFMuSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQAAAMcajQACAAAABTUyLjMxAENdCJCvEdEIZPpGJ7IR0QgrQ0lRLk5ZU0U6UEVQLklRX0VCSVREQ</t>
+  </si>
+  <si>
+    <t>S4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAABWgAAAAgAAAAUxMjM0NAEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAABDQwNTEEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMjgvMjAxMwkAAAABMBkFBtewEdEIIF5GJ7IR0QgcQ0lRLk5ZU0U6RFBTLklRX0NPTVBBTllfTkFNRQEAAADHGo0AAwAAAB1EciBQZXBwZXIgU25hcHBsZSBHcm91cCwgSW5jLgCV7i1LrxHRCGT6RieyEdEILkNJUS5PVENQSzpKU0RBLklRX05JX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAaFYGAAIAAAAHLTEuMTQyNQEIAAAABQAAAAExAQAAAAoxNjYyNTExODI2AwAAAAMxNjACAAAABDQzNzgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMHDS+kixEdEISKMU7bER0QgtQ0lRLk5ZU0U6S08uSVFfVE9UQUxfUkVWLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAABJoAAACAAAABTQ2ODU0AQgAAAAFAAAAATEBAAAACjE2NjA3NTYzNTUDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMFx0ea2wEdEIU9NGJ7IR0QgXQ0lRLk5ZU0U6S08uSVFfVEVWLi5VU0QBAAAAEmgAAAIAAAAMMTg1MTIxLjc1OTAyAQYAAAAFAAAAATEBAAAACjE2NjA3NTc4NDMDAAAAAzE2MAIAAAAGMTAwMDYwBAAAAAEwBwAAAAkzLzE5LzIwMTQUFVpgsBHRCCBeRiey</t>
+  </si>
+  <si>
+    <t>EdEIOENJUS5OQVNEQVFHUzpNTlNULklRX0RJTFVUX0VQU19OT1JNLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAALE+BQACAAAACDIuMDYxNzg1AQgAAAAFAAAAATEBAAAACjE2NjEyMjcxNjEDAAAAAzE2MAIAAAAENDM4MAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEwg9mTGbER0QiAt5oZsRHRCCtDSVEuTllTRTpLTy5JUV9OSV9OT1JNLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAABJoAAACAAAABjczODAuNQEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAABDQzNzgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMHDS+kixEdEIQqxGJ7IR0QgfQ0lRLk5ZU0U6S08uSVFfRUJJVC4yMDAwLi4uLlVTRAEAAAASaAAAAgAAAAUxMTEyNwEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QiAEvrusBHRCCFDSVEuTllTRTpEUFMuSVFfVEVWLjMvMTkvMjAxNC5VU0QBAAAAxxqNAAIAAAALMTI3NjMuODg5MzgBBgAAAAUAAAABMQEAAAAKMTY1OTQyMTYxNQMAAAADMTYwAgAAAAYxMDAwNjAEAAAAATAHAAAACTMvMTkvMjAxNBQVWmCwEdEIMYVGJ7IR0QgwQ0lRLk5BU0RBUUdTOkZJWlouSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQA</t>
+  </si>
+  <si>
+    <t>AAJroBAACAAAABTIwLjgxAENdCJCvEdEIZPpGJ7IR0QgwQ0lRLk5BU0RBUUdTOkZJWlouSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAJroBAACAAAABjc3LjYxNQEIAAAABQAAAAExAQAAAAoxNjYxNDAzODQ1AwAAAAMxNjACAAAABDQwNTEEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEw/x813bAR0QgxhUYnshHRCCtDSVEuT1RDUEs6SlNEQS5JUV9FQklULjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAGhWBgACAAAABi0xLjgzOAEIAAAABQAAAAExAQAAAAoxNjYyNTExODI2AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QhZyhTtsRHRCCFDSVEuTkFTREFRR1M6RklaWi5JUV9DT01QQU5ZX05BTUUBAAAAmugEAAMAAAAXTmF0aW9uYWwgQmV2ZXJhZ2UgQ29ycC4ADZZ0O68R0Qhk+kYnshHRCCFDSVEuTllTRTpQRVAuSVFfVEVWLjMvMTkvMjAxNC5VU0QBAAAAVoAAAAIAAAAMMTQzODI0LjA1ODQyAQYAAAAFAAAAATEBAAAACjE2NTgzNDM0MDQDAAAAAzE2MAIAAAAGMTAwMDYwBAAAAAEwBwAAAAkzLzE5LzIwMTR8F0ldsBHRCCBeRieyEdEIMUNJUS5OQVNEQVFHUzpGSVpaLklRX05JX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAmugEAAIAAAAJNDAuOTkwNjI1AQgAAAAFAAAAATEBAAAACjE2NjE0MD</t>
+  </si>
+  <si>
+    <t>M4NDUDAAAAAzE2MAIAAAAENDM3OAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAkxLzI1LzIwMTQJAAAAATBw0vpIsRHRCFPTRieyEdEILkNJUS5OQVNEQVFHUzpNTlNULklRX0VCSVQuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAsT4FAAIAAAAHNTgzLjcxNgEIAAAABQAAAAExAQAAAAoxNjYxMjI3MTYxAwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QhCrEYnshHRCDBDSVEuT1RDUEs6SlNEQS5JUV9UT1RBTF9SRVYuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAaFYGAAIAAAAGMTMuNjk2AQgAAAAFAAAAATEBAAAACjE2NjI1MTE4MjYDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMFx0ea2wEdEIexgV7bER0QgoQ0lRLk5ZU0U6S08uSVFfRUJJVC4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAAASaAAAAgAAAAUxMTEyNwEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QgxhUYnshHRCDBDSVEuTkFTREFRR1M6TU5TVC5JUV9MQVNUU0FMRVBSSUNFLjMvMTkvMjAxNC5VU0QBAAAAsT4FAAIAAAAFNjkuNjIAQ10IkK8R0Qhk+kYnshHRCBxDSVEuTllTRTpQRVAuSVFfQ09NUEFOWV9OQU1FAQAAA</t>
+  </si>
+  <si>
+    <t>FaAAAADAAAADVBlcHNpY28sIEluYy4A6ytnM68R0Qh1IUcnshHRCC5DSVEuTllTRTpQRVAuSVFfVE9UQUxfUkVWLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAFaAAAACAAAABTY2NDE1AQgAAAAFAAAAATEBAAAACjE2NTgzNDIyNTgDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMjgvMjAxMwkAAAABMN56ZauwEdEIU9NGJ7IR0QgtQ0lRLk9UQ1BLOkpTREEuSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAGhWBgACAAAABi0xLjYwNgEIAAAABQAAAAExAQAAAAoxNjYyNTExODI2AwAAAAMxNjACAAAABDQwNTEEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMP8fNd2wEdEIavEU7bER0QgqQ0lRLk5ZU0U6S08uSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAABJoAAACAAAABTEzMTA0AQgAAAAFAAAAATEBAAAACjE2NjA3NTYzNTUDAAAAAzE2MAIAAAAENDA1MQQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw7vg03bAR0QggXkYnshHRCCJDSVEuTllTRTpLTy5JUV9OSV9OT1JNLjIwMDAuLi4uVVNEAQAAABJoAAACAAAABjczODAuNQEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAABDQzNzgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMHDS+kixEdEIoCUCSbER0Qgw</t>
+  </si>
+  <si>
+    <t>Q0lRLk5BU0RBUUdTOk1OU1QuSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAALE+BQACAAAABzYwNi40NzgBCAAAAAUAAAABMQEAAAAKMTY2MTIyNzE2MQMAAAADMTYwAgAAAAQ0MDUxBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATD/HzXdsBHRCDGFRieyEdEIKUNJUS5OWVNFOkRQUy5JUV9FQklULjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAMcajQACAAAABDExMDMBCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAM0MDAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMPv78e6wEdEIQqxGJ7IR0QgpQ0lRLk9UQ1BLOkpTREEuSVFfTUFSS0VUQ0FQLjMvMTkvMjAxNC5VU0QBAAAAaFYGAAIAAAAJMTcuODA2NzkxAQYAAAAFAAAAATEBAAAACjE2NjE2NzUwMDYDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAkzLzE5LzIwMTRMSEO4rxHRCEijFO2xEdEIIUNJUS5OQVNEQVFHUzpNTlNULklRX0NPTVBBTllfTkFNRQEAAACxPgUAAwAAABxNb25zdGVyIEJldmVyYWdlIENvcnBvcmF0aW9uAA2WdDuvEdEIZPpGJ7IR0QgnQ0lRLk5ZU0U6UEVQLklRX01BUktFVENBUC4zLzE5LzIwMTQuVVNEAQAAAFaAAAACAAAADDEyMzg4My4wNTg0MgEGAAAABQAAAAExAQAAAAoxNjU4MzQzNDA0AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAA</t>
+  </si>
+  <si>
+    <t>JMy8xOS8yMDE0tJ/1ta8R0QhCrEYnshHRCA==</t>
+  </si>
+  <si>
+    <t>© Corporate Finance Institute®. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Comparable Company Analysis</t>
+  </si>
+  <si>
+    <t>Market Data</t>
+  </si>
+  <si>
+    <t>Financial Data</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>EV/Revenue</t>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>EV/EBIT</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Market Cap</t>
+    <t>($/share)</t>
+  </si>
+  <si>
+    <t>($M)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>The Coca-Cola Company</t>
+  </si>
+  <si>
+    <t>Pepsico, Inc.</t>
+  </si>
+  <si>
+    <t>Dr Pepper Snapple Group, Inc.</t>
+  </si>
+  <si>
+    <t>Monster Beverage Corporation</t>
+  </si>
+  <si>
+    <t>National Beverage Corp.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>This file is for educational purposes only. E&amp;OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate Finance Institute® </t>
+  </si>
+  <si>
+    <t>https://corporatefinanceinstitute.com/</t>
   </si>
   <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
-    <t>EBIT</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
     <t>EV/Sales</t>
-  </si>
-  <si>
-    <t>EV/EBITDA</t>
-  </si>
-  <si>
-    <t>EV/EBIT</t>
-  </si>
-  <si>
-    <t>P/E</t>
-  </si>
-  <si>
-    <t>Market Data</t>
-  </si>
-  <si>
-    <t>Financial Data</t>
-  </si>
-  <si>
-    <t>Valuation</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>($/share)</t>
-  </si>
-  <si>
-    <t>($M)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>AwABTAVMT0NBTAFI/////wFQPgAAACxDSVEuTkFTREFRR1M6TU5TVC5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAACxPgUAAgAAAAsxMTYxNy45NzY3NAEGAAAABQAAAAExAQAAAAoxNjYxMjI3MjI2AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAJMy8xOS8yMDE0TEhDuK8R0QhT00YnshHRCDFDSVEuTkFTREFRR1M6TU5TVC5JUV9OSV9OT1JNLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAALE+BQACAAAACjM1Ny40ODY4NzUBCAAAAAUAAAABMQEAAAAKMTY2MTIyNzE2MQMAAAADMTYwAgAAAAQ0Mzc4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATBw0vpIsRHRCFPTRieyEdEIHUNJUS5OWVNFOktPLklRX01BUktFVENBUC4uVVNEAQAAABJoAAACAAAADDE2ODA0MC43NTkwMgEGAAAABQAAAAExAQAAAAoxNjYwNzU3ODQzAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAJMy8xOS8yMDE0TEhDuK8R0Qg3fBTtsRHRCDNDSVEuTllTRTpEUFMuSVFfRElMVVRfRVBTX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAxxqNAAIAAAAIMy4wMzE3ODQBCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATCD2ZMZsRHRCIC3mhmxEdEIKkNJUS5OWVNFOlBFUC5JUV9ESUxVVF9FUFNfTk9</t>
-  </si>
-  <si>
-    <t>STS4yMDAwLi4uLlVTRAEAAABWgAAAAgAAAAgzLjYwMTI4MgEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAABDQzODAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMjgvMjAxMwkAAAABMOXbLBexEdEIN300F7ER0QgmQ0lRLk5BU0RBUUdTOk1OU1QuSVFfVEVWLjMvMTkvMjAxNC5VU0QBAAAAsT4FAAIAAAALMTEwMDQuMzgwNzQBBgAAAAUAAAABMQEAAAAKMTY2MTIyNzIyNgMAAAADMTYwAgAAAAYxMDAwNjAEAAAAATAHAAAACTMvMTkvMjAxNBQVWmCwEdEIMYVGJ7IR0QggQ0lRLk5ZU0U6UEVQLklRX0VCSVQuMjAwMC4uLi5VU0QBAAAAVoAAAAIAAAAEOTg3OAEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8yOC8yMDEzCQAAAAEw16lM67AR0QiQ61LrsBHRCB5DSVEuT1RDUEs6SlNEQS5JUV9DT01QQU5ZX05BTUUBAAAAaFYGAAMAAAAOSm9uZXMgU29kYSBDby4ADZZ0O68R0QidZhXtsRHRCCxDSVEuTkFTREFRR1M6RklaWi5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAACa6AQAAgAAAAk5NjQuMTg5NzMBBgAAAAUAAAABMQEAAAAKMTY2MTQwMzUyNAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACTMvMTkvMjAxNExIQ7ivEdEIU9NGJ7IR0QguQ0lRLk5BU0RBUUdTOkZJWlouSVFfRUJJVC4yMDAwLj</t>
-  </si>
-  <si>
-    <t>MvMTkvMjAxNC4uLlVTRAEAAACa6AQAAgAAAAY2Ni4xMzkBCAAAAAUAAAABMQEAAAAKMTY2MTQwMzg0NQMAAAADMTYwAgAAAAM0MDAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEw+/vx7rAR0QhCrEYnshHRCDNDSVEuTllTRTpQRVAuSVFfRElMVVRfRVBTX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAVoAAAAIAAAAIMy42MDEyODIBCAAAAAUAAAABMQEAAAAKMTY1ODM0MjI1OAMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzI4LzIwMTMJAAAAATDl2ywXsRHRCDd9NBexEdEIJ0NJUS5OWVNFOkRQUy5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAADHGo0AAgAAAAsxMDMyNS44ODkzOAEGAAAABQAAAAExAQAAAAoxNjU5NDIxNjE1AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAJMy8xOS8yMDE0TEhDuK8R0QhCrEYnshHRCCxDSVEuTllTRTpQRVAuSVFfTklfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAABWgAAAAgAAAAQ1NjE4AQgAAAAFAAAAATEBAAAACjE2NTgzNDIyNTgDAAAAAzE2MAIAAAAENDM3OAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8yOC8yMDEzCQAAAAEwLkDjPrER0QhCrEYnshHRCCNDSVEuT1RDUEs6SlNEQS5JUV9URVYuMy8xOS8yMDE0LlVTRAEAAABoVgYAAgAAAAkxNi4zNzE3OTEBBgAAAAUAAAABMQEAA</t>
-  </si>
-  <si>
-    <t>AAKMTY2MTY3NTAwNgMAAAADMTYwAgAAAAYxMDAwNjAEAAAAATAHAAAACTMvMTkvMjAxNBQVWmCwEdEISKMU7bER0QgpQ0lRLk5ZU0U6S08uSVFfRElMVVRfRVBTX05PUk0uMjAwMC4uLi5VU0QBAAAAEmgAAAIAAAAIMS42MzY4MzcBCAAAAAUAAAABMQEAAAAKMTY2MDc1NjM1NQMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATCD2ZMZsRHRCG+QmhmxEdEIM0NJUS5OQVNEQVFHUzpNTlNULklRX1RPVEFMX1JFVi4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAACxPgUAAgAAAAgyMjQ2LjQyOAEIAAAABQAAAAExAQAAAAoxNjYxMjI3MTYxAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATBcdHmtsBHRCFPTRieyEdEIJkNJUS5OQVNEQVFHUzpGSVpaLklRX1RFVi4zLzE5LzIwMTQuVVNEAQAAAJroBAACAAAACTk2Ny41MjQ3MwEGAAAABQAAAAExAQAAAAoxNjYxNDAzNTI0AwAAAAMxNjACAAAABjEwMDA2MAQAAAABMAcAAAAJMy8xOS8yMDE0FBVaYLAR0QgxhUYnshHRCCxDSVEuTllTRTpEUFMuSVFfTklfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAADHGo0AAgAAAAM2MjABCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAQ0Mzc4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJ</t>
-  </si>
-  <si>
-    <t>AAAAATBw0vpIsRHRCEKsRieyEdEII0NJUS5OWVNFOlBFUC5JUV9OSV9OT1JNLjIwMDAuLi4uVVNEAQAAAFaAAAACAAAABDU2MTgBCAAAAAUAAAABMQEAAAAKMTY1ODM0MjI1OAMAAAADMTYwAgAAAAQ0Mzc4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzI4LzIwMTMJAAAAATAuQOM+sRHRCE1s6j6xEdEILkNJUS5OWVNFOkRQUy5JUV9UT1RBTF9SRVYuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAxxqNAAIAAAAENTk5NwEIAAAABQAAAAExAQAAAAoxNjU5NDIxNTAxAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATBcdHmtsBHRCFPTRieyEdEIK0NJUS5OWVNFOlBFUC5JUV9MQVNUU0FMRVBSSUNFLjMvMTkvMjAxNC5VU0QBAAAAVoAAAAIAAAAFODEuMzcAp8xSi68R0Qhk+kYnshHRCDNDSVEuTkFTREFRR1M6RklaWi5JUV9UT1RBTF9SRVYuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAmugEAAIAAAAGNjQ0LjY2AQgAAAAFAAAAATEBAAAACjE2NjE0MDM4NDUDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEwXHR5rbAR0QhT00YnshHRCCtDSVEuTllTRTpEUFMuSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAMcajQACAAAABDEzMTkBCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAQ</t>
-  </si>
-  <si>
-    <t>0MDUxBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATDu+DTdsBHRCDGFRieyEdEIIENJUS5OWVNFOktPLklRX1RFVi4zLzE5LzIwMTQuVVNEAQAAABJoAAACAAAADDE4NTEyMS43NTkwMgEGAAAABQAAAAExAQAAAAoxNjYwNzU3ODQzAwAAAAMxNjACAAAABjEwMDA2MAQAAAABMAcAAAAJMy8xOS8yMDE0FBVaYLAR0QggXkYnshHRCDVDSVEuT1RDUEs6SlNEQS5JUV9ESUxVVF9FUFNfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAABoVgYAAgAAAAktMC4wMjk2MDMBCAAAAAUAAAABMQEAAAAKMTY2MjUxMTgyNgMAAAADMTYwAgAAAAQ0MzgwBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATCD2ZMZsRHRCJHemhmxEdEIG0NJUS5OWVNFOktPLklRX0NPTVBBTllfTkFNRQEAAAASaAAAAwAAABVUaGUgQ29jYS1Db2xhIENvbXBhbnkADZZ0O68R0Qhk+kYnshHRCDhDSVEuTkFTREFRR1M6RklaWi5JUV9ESUxVVF9FUFNfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAACa6AQAAgAAAAgwLjg4MTMxOQEIAAAABQAAAAExAQAAAAoxNjYxNDAzODQ1AwAAAAMxNjACAAAABDQzODAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEwg9mTGbER0QiAt5oZsRHRCCZDSVEuTllTRTpLTy5JUV9NQVJLRVRDQVAuMy8xOS8yMDE0LlVTRAEAAAASaAAAAgAAAA</t>
-  </si>
-  <si>
-    <t>wxNjgwNDAuNzU5MDIBBgAAAAUAAAABMQEAAAAKMTY2MDc1Nzg0MwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACTMvMTkvMjAxNExIQ7ivEdEIQqxGJ7IR0QgqQ0lRLk5ZU0U6S08uSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQAAABJoAAACAAAABTM4LjE0AENdCJCvEdEIZPpGJ7IR0QgpQ0lRLk5ZU0U6UEVQLklRX0VCSVQuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAVoAAAAIAAAAEOTg3OAEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8yOC8yMDEzCQAAAAEw16lM67AR0QgxhUYnshHRCDJDSVEuTllTRTpLTy5JUV9ESUxVVF9FUFNfTk9STS4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAAASaAAAAgAAAAgxLjYzNjgzNwEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAABDQzODAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMIPZkxmxEdEIgLeaGbER0QgtQ0lRLk9UQ1BLOkpTREEuSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQAAAGhWBgACAAAABDAuNDYAQ10IkK8R0QiMPxXtsRHRCCtDSVEuTllTRTpEUFMuSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQAAAMcajQACAAAABTUyLjMxAENdCJCvEdEIZPpGJ7IR0QgrQ0lRLk5ZU0U6UEVQLklRX0VCSVREQ</t>
-  </si>
-  <si>
-    <t>S4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAABWgAAAAgAAAAUxMjM0NAEIAAAABQAAAAExAQAAAAoxNjU4MzQyMjU4AwAAAAMxNjACAAAABDQwNTEEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMjgvMjAxMwkAAAABMBkFBtewEdEIIF5GJ7IR0QgcQ0lRLk5ZU0U6RFBTLklRX0NPTVBBTllfTkFNRQEAAADHGo0AAwAAAB1EciBQZXBwZXIgU25hcHBsZSBHcm91cCwgSW5jLgCV7i1LrxHRCGT6RieyEdEILkNJUS5PVENQSzpKU0RBLklRX05JX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAaFYGAAIAAAAHLTEuMTQyNQEIAAAABQAAAAExAQAAAAoxNjYyNTExODI2AwAAAAMxNjACAAAABDQzNzgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMHDS+kixEdEISKMU7bER0QgtQ0lRLk5ZU0U6S08uSVFfVE9UQUxfUkVWLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAABJoAAACAAAABTQ2ODU0AQgAAAAFAAAAATEBAAAACjE2NjA3NTYzNTUDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMFx0ea2wEdEIU9NGJ7IR0QgXQ0lRLk5ZU0U6S08uSVFfVEVWLi5VU0QBAAAAEmgAAAIAAAAMMTg1MTIxLjc1OTAyAQYAAAAFAAAAATEBAAAACjE2NjA3NTc4NDMDAAAAAzE2MAIAAAAGMTAwMDYwBAAAAAEwBwAAAAkzLzE5LzIwMTQUFVpgsBHRCCBeRiey</t>
-  </si>
-  <si>
-    <t>EdEIOENJUS5OQVNEQVFHUzpNTlNULklRX0RJTFVUX0VQU19OT1JNLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAALE+BQACAAAACDIuMDYxNzg1AQgAAAAFAAAAATEBAAAACjE2NjEyMjcxNjEDAAAAAzE2MAIAAAAENDM4MAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEwg9mTGbER0QiAt5oZsRHRCCtDSVEuTllTRTpLTy5JUV9OSV9OT1JNLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAABJoAAACAAAABjczODAuNQEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAABDQzNzgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMHDS+kixEdEIQqxGJ7IR0QgfQ0lRLk5ZU0U6S08uSVFfRUJJVC4yMDAwLi4uLlVTRAEAAAASaAAAAgAAAAUxMTEyNwEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QiAEvrusBHRCCFDSVEuTllTRTpEUFMuSVFfVEVWLjMvMTkvMjAxNC5VU0QBAAAAxxqNAAIAAAALMTI3NjMuODg5MzgBBgAAAAUAAAABMQEAAAAKMTY1OTQyMTYxNQMAAAADMTYwAgAAAAYxMDAwNjAEAAAAATAHAAAACTMvMTkvMjAxNBQVWmCwEdEIMYVGJ7IR0QgwQ0lRLk5BU0RBUUdTOkZJWlouSVFfTEFTVFNBTEVQUklDRS4zLzE5LzIwMTQuVVNEAQA</t>
-  </si>
-  <si>
-    <t>AAJroBAACAAAABTIwLjgxAENdCJCvEdEIZPpGJ7IR0QgwQ0lRLk5BU0RBUUdTOkZJWlouSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAJroBAACAAAABjc3LjYxNQEIAAAABQAAAAExAQAAAAoxNjYxNDAzODQ1AwAAAAMxNjACAAAABDQwNTEEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAJMS8yNS8yMDE0CQAAAAEw/x813bAR0QgxhUYnshHRCCtDSVEuT1RDUEs6SlNEQS5JUV9FQklULjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAGhWBgACAAAABi0xLjgzOAEIAAAABQAAAAExAQAAAAoxNjYyNTExODI2AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QhZyhTtsRHRCCFDSVEuTkFTREFRR1M6RklaWi5JUV9DT01QQU5ZX05BTUUBAAAAmugEAAMAAAAXTmF0aW9uYWwgQmV2ZXJhZ2UgQ29ycC4ADZZ0O68R0Qhk+kYnshHRCCFDSVEuTllTRTpQRVAuSVFfVEVWLjMvMTkvMjAxNC5VU0QBAAAAVoAAAAIAAAAMMTQzODI0LjA1ODQyAQYAAAAFAAAAATEBAAAACjE2NTgzNDM0MDQDAAAAAzE2MAIAAAAGMTAwMDYwBAAAAAEwBwAAAAkzLzE5LzIwMTR8F0ldsBHRCCBeRieyEdEIMUNJUS5OQVNEQVFHUzpGSVpaLklRX05JX05PUk0uMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAmugEAAIAAAAJNDAuOTkwNjI1AQgAAAAFAAAAATEBAAAACjE2NjE0MD</t>
-  </si>
-  <si>
-    <t>M4NDUDAAAAAzE2MAIAAAAENDM3OAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAkxLzI1LzIwMTQJAAAAATBw0vpIsRHRCFPTRieyEdEILkNJUS5OQVNEQVFHUzpNTlNULklRX0VCSVQuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAsT4FAAIAAAAHNTgzLjcxNgEIAAAABQAAAAExAQAAAAoxNjYxMjI3MTYxAwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QhCrEYnshHRCDBDSVEuT1RDUEs6SlNEQS5JUV9UT1RBTF9SRVYuMjAwMC4zLzE5LzIwMTQuLi5VU0QBAAAAaFYGAAIAAAAGMTMuNjk2AQgAAAAFAAAAATEBAAAACjE2NjI1MTE4MjYDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMFx0ea2wEdEIexgV7bER0QgoQ0lRLk5ZU0U6S08uSVFfRUJJVC4yMDAwLjMvMTkvMjAxNC4uLlVTRAEAAAASaAAAAgAAAAUxMTEyNwEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAAAzQwMAQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw+/vx7rAR0QgxhUYnshHRCDBDSVEuTkFTREFRR1M6TU5TVC5JUV9MQVNUU0FMRVBSSUNFLjMvMTkvMjAxNC5VU0QBAAAAsT4FAAIAAAAFNjkuNjIAQ10IkK8R0Qhk+kYnshHRCBxDSVEuTllTRTpQRVAuSVFfQ09NUEFOWV9OQU1FAQAAA</t>
-  </si>
-  <si>
-    <t>FaAAAADAAAADVBlcHNpY28sIEluYy4A6ytnM68R0Qh1IUcnshHRCC5DSVEuTllTRTpQRVAuSVFfVE9UQUxfUkVWLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAFaAAAACAAAABTY2NDE1AQgAAAAFAAAAATEBAAAACjE2NTgzNDIyNTgDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMjgvMjAxMwkAAAABMN56ZauwEdEIU9NGJ7IR0QgtQ0lRLk9UQ1BLOkpTREEuSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAGhWBgACAAAABi0xLjYwNgEIAAAABQAAAAExAQAAAAoxNjYyNTExODI2AwAAAAMxNjACAAAABDQwNTEEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMP8fNd2wEdEIavEU7bER0QgqQ0lRLk5ZU0U6S08uSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAABJoAAACAAAABTEzMTA0AQgAAAAFAAAAATEBAAAACjE2NjA3NTYzNTUDAAAAAzE2MAIAAAAENDA1MQQAAAABMAcAAAAJMy8xOS8yMDE0CAAAAAoxMi8zMS8yMDEzCQAAAAEw7vg03bAR0QggXkYnshHRCCJDSVEuTllTRTpLTy5JUV9OSV9OT1JNLjIwMDAuLi4uVVNEAQAAABJoAAACAAAABjczODAuNQEIAAAABQAAAAExAQAAAAoxNjYwNzU2MzU1AwAAAAMxNjACAAAABDQzNzgEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMHDS+kixEdEIoCUCSbER0Qgw</t>
-  </si>
-  <si>
-    <t>Q0lRLk5BU0RBUUdTOk1OU1QuSVFfRUJJVERBLjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAALE+BQACAAAABzYwNi40NzgBCAAAAAUAAAABMQEAAAAKMTY2MTIyNzE2MQMAAAADMTYwAgAAAAQ0MDUxBAAAAAEwBwAAAAkzLzE5LzIwMTQIAAAACjEyLzMxLzIwMTMJAAAAATD/HzXdsBHRCDGFRieyEdEIKUNJUS5OWVNFOkRQUy5JUV9FQklULjIwMDAuMy8xOS8yMDE0Li4uVVNEAQAAAMcajQACAAAABDExMDMBCAAAAAUAAAABMQEAAAAKMTY1OTQyMTUwMQMAAAADMTYwAgAAAAM0MDAEAAAAATAHAAAACTMvMTkvMjAxNAgAAAAKMTIvMzEvMjAxMwkAAAABMPv78e6wEdEIQqxGJ7IR0QgpQ0lRLk9UQ1BLOkpTREEuSVFfTUFSS0VUQ0FQLjMvMTkvMjAxNC5VU0QBAAAAaFYGAAIAAAAJMTcuODA2NzkxAQYAAAAFAAAAATEBAAAACjE2NjE2NzUwMDYDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAkzLzE5LzIwMTRMSEO4rxHRCEijFO2xEdEIIUNJUS5OQVNEQVFHUzpNTlNULklRX0NPTVBBTllfTkFNRQEAAACxPgUAAwAAABxNb25zdGVyIEJldmVyYWdlIENvcnBvcmF0aW9uAA2WdDuvEdEIZPpGJ7IR0QgnQ0lRLk5ZU0U6UEVQLklRX01BUktFVENBUC4zLzE5LzIwMTQuVVNEAQAAAFaAAAACAAAADDEyMzg4My4wNTg0MgEGAAAABQAAAAExAQAAAAoxNjU4MzQzNDA0AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAA</t>
-  </si>
-  <si>
-    <t>JMy8xOS8yMDE0tJ/1ta8R0QhCrEYnshHRCA==</t>
-  </si>
-  <si>
-    <t>The Coca-Cola Company</t>
-  </si>
-  <si>
-    <t>Pepsico, Inc.</t>
-  </si>
-  <si>
-    <t>Dr Pepper Snapple Group, Inc.</t>
-  </si>
-  <si>
-    <t>Monster Beverage Corporation</t>
-  </si>
-  <si>
-    <t>National Beverage Corp.</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>© Corporate Finance Institute®. All rights reserved.</t>
-  </si>
-  <si>
-    <t>Comparable Company Analysis</t>
-  </si>
-  <si>
-    <t>This file is for educational purposes only. E&amp;OE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate Finance Institute® </t>
-  </si>
-  <si>
-    <t>https://corporatefinanceinstitute.com/</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>EV/Revenue</t>
   </si>
 </sst>
 </file>
@@ -388,10 +388,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -464,18 +464,13 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink 2 2" xfId="4" xr:uid="{58A849E3-082D-4348-81DA-5976C6A6C49D}"/>
-    <cellStyle name="Hyperlink 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2 2" xfId="3" xr:uid="{FB71A612-6204-49B7-B53E-B5BA019E65B9}"/>
+    <cellStyle name="Normal 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,10 +500,10 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E3B545-07B4-4192-966F-B460B9995569}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,13 +512,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -536,6 +525,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -561,10 +553,10 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84BE569-54BD-4E49-A078-0B478478FE60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,13 +565,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -592,6 +578,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -931,46 +920,46 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -982,21 +971,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
@@ -1004,12 +993,13 @@
     <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="1" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1028,10 +1018,10 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1052,20 +1042,20 @@
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1075,105 +1065,107 @@
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="18" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="27">
-        <v>38.14</v>
+        <v>129.62</v>
       </c>
       <c r="D7" s="28">
-        <v>168040.75902</v>
+        <v>2142138928617</v>
       </c>
       <c r="E7" s="28">
-        <v>185121.75902</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>2238561928617</v>
+      </c>
+      <c r="F7" s="28">
+        <v>394328000000</v>
+      </c>
       <c r="G7" s="28">
-        <v>46854</v>
+        <v>133138000000</v>
       </c>
       <c r="H7" s="28">
-        <v>13104</v>
+        <v>122034000000</v>
       </c>
       <c r="I7" s="28">
-        <v>11127</v>
+        <v>99803000000</v>
       </c>
       <c r="J7" s="28">
         <v>7380.5</v>
@@ -1181,156 +1173,162 @@
       <c r="K7" s="2"/>
       <c r="L7" s="3">
         <f>E7/G7</f>
-        <v>3.9510342557732532</v>
+        <v>16.813846750116422</v>
       </c>
       <c r="M7" s="3">
         <f>E7/H7</f>
-        <v>14.127118362332112</v>
+        <v>18.343756073037021</v>
       </c>
       <c r="N7" s="3">
         <f>E7/I7</f>
-        <v>16.637167162757258</v>
+        <v>22.429806003997875</v>
       </c>
       <c r="O7" s="3">
         <f>D7/J7</f>
-        <v>22.76820798319897</v>
+        <v>290243063.29069847</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="27">
-        <v>81.37</v>
+        <v>224.93</v>
       </c>
       <c r="D8" s="28">
-        <v>123883.05842</v>
+        <v>1678414160826</v>
       </c>
       <c r="E8" s="28">
-        <v>143824.05841999999</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>1725753160826</v>
+      </c>
+      <c r="F8" s="28">
+        <v>198270000000</v>
+      </c>
       <c r="G8" s="28">
-        <v>66415</v>
+        <v>100239000000</v>
       </c>
       <c r="H8" s="28">
-        <v>12344</v>
+        <v>85779000000</v>
       </c>
       <c r="I8" s="28">
-        <v>9878</v>
+        <v>72738000000</v>
       </c>
       <c r="J8" s="28">
         <v>5618</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3">
-        <f t="shared" ref="L8:L11" si="0">E8/G8</f>
-        <v>2.1655357738462695</v>
+        <f>E8/G8</f>
+        <v>17.21638444942587</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:M11" si="1">E8/H8</f>
-        <v>11.651333313350614</v>
+        <f>E8/H8</f>
+        <v>20.118597335315169</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N11" si="2">E8/I8</f>
-        <v>14.560038309374367</v>
+        <f>E8/I8</f>
+        <v>23.725606434408423</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" ref="O8:O11" si="3">D8/J8</f>
-        <v>22.051096194375223</v>
+        <f>D8/J8</f>
+        <v>298756525.60092562</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="27">
-        <v>52.31</v>
+        <v>86.08</v>
       </c>
       <c r="D9" s="28">
-        <v>10325.889380000001</v>
+        <v>878162423802</v>
       </c>
       <c r="E9" s="28">
-        <v>12763.889380000001</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>958337423802</v>
+      </c>
+      <c r="F9" s="28">
+        <v>469822000000</v>
+      </c>
       <c r="G9" s="28">
-        <v>5997</v>
+        <v>74260000000</v>
       </c>
       <c r="H9" s="28">
-        <v>1319</v>
+        <v>39964000000</v>
       </c>
       <c r="I9" s="28">
-        <v>1103</v>
+        <v>33364000000</v>
       </c>
       <c r="J9" s="28">
         <v>620</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1283790862097716</v>
+        <f>E9/G9</f>
+        <v>12.905163261540533</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
-        <v>9.6769441849886277</v>
+        <f>E9/H9</f>
+        <v>23.980017610899811</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
-        <v>11.571975865820489</v>
+        <f>E9/I9</f>
+        <v>28.723696912900131</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="3"/>
-        <v>16.654660290322582</v>
+        <f>D9/J9</f>
+        <v>1416391006.1322582</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="27">
-        <v>69.62</v>
+        <v>88.16</v>
       </c>
       <c r="D10" s="28">
-        <v>11617.97674</v>
+        <v>1125344725066</v>
       </c>
       <c r="E10" s="28">
-        <v>11004.380740000001</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>1132794725066</v>
+      </c>
+      <c r="F10" s="28">
+        <v>257637000000</v>
+      </c>
       <c r="G10" s="28">
-        <v>2246.4279999999999</v>
+        <v>103521000000</v>
       </c>
       <c r="H10" s="28">
-        <v>606.47799999999995</v>
+        <v>91080000000</v>
       </c>
       <c r="I10" s="28">
-        <v>583.71600000000001</v>
+        <v>76033000000</v>
       </c>
       <c r="J10" s="28">
         <v>357.48687999999999</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8986127042576042</v>
+        <f>E10/G10</f>
+        <v>10.942656321577264</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
-        <v>18.144731944110095</v>
+        <f>E10/H10</f>
+        <v>12.437359739415898</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
-        <v>18.852285597790708</v>
+        <f>E10/I10</f>
+        <v>14.898724567832389</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="3"/>
-        <v>32.499029726629409</v>
+        <f>D10/J10</f>
+        <v>3147932939.7095637</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="27">
         <v>20.81</v>
@@ -1356,19 +1354,19 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
-        <f t="shared" si="0"/>
+        <f>E11/G11</f>
         <v>1.5008294760028542</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f>E11/H11</f>
         <v>12.465692585196161</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f>E11/I11</f>
         <v>14.628656768321264</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="3"/>
+        <f>D11/J11</f>
         <v>23.522198365821652</v>
       </c>
     </row>
@@ -1390,7 +1388,7 @@
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1403,24 +1401,24 @@
       <c r="K13" s="20"/>
       <c r="L13" s="21">
         <f>AVERAGE(L7:L11)</f>
-        <v>2.9288782592179503</v>
+        <v>11.875776051732588</v>
       </c>
       <c r="M13" s="21">
         <f>AVERAGE(M7:M11)</f>
-        <v>13.213164077995524</v>
+        <v>17.469084668772812</v>
       </c>
       <c r="N13" s="21">
         <f>AVERAGE(N7:N11)</f>
-        <v>15.250024740812815</v>
+        <v>20.881298137492017</v>
       </c>
       <c r="O13" s="21">
         <f>AVERAGE(O7:O11)</f>
-        <v>23.499038512069568</v>
+        <v>1030664711.651129</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1433,66 +1431,66 @@
       <c r="K14" s="20"/>
       <c r="L14" s="21">
         <f>MEDIAN(L7:L11)</f>
-        <v>2.1655357738462695</v>
+        <v>12.905163261540533</v>
       </c>
       <c r="M14" s="21">
         <f>MEDIAN(M7:M11)</f>
-        <v>12.465692585196161</v>
+        <v>18.343756073037021</v>
       </c>
       <c r="N14" s="21">
         <f>MEDIAN(N7:N11)</f>
-        <v>14.628656768321264</v>
+        <v>22.429806003997875</v>
       </c>
       <c r="O14" s="21">
         <f>MEDIAN(O7:O11)</f>
-        <v>22.76820798319897</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+        <v>298756525.60092562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
         <v>43</v>
       </c>
@@ -1504,30 +1502,30 @@
     <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83185C62-718D-A740-AD7A-16254ED34945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
@@ -1535,12 +1533,13 @@
     <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="1" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1559,10 +1558,10 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1583,20 +1582,20 @@
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1606,86 +1605,86 @@
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="14" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="18" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="27">
         <v>38.14</v>
@@ -1729,7 +1728,7 @@
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="27">
         <v>81.37</v>
@@ -1755,25 +1754,25 @@
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3">
-        <f t="shared" ref="L8:L11" si="0">E8/G8</f>
+        <f>E8/G8</f>
         <v>2.1655357738462695</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:M11" si="1">E8/H8</f>
+        <f>E8/H8</f>
         <v>11.651333313350614</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N11" si="2">E8/I8</f>
+        <f>E8/I8</f>
         <v>14.560038309374367</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" ref="O8:O11" si="3">D8/J8</f>
+        <f>D8/J8</f>
         <v>22.051096194375223</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="27">
         <v>52.31</v>
@@ -1799,25 +1798,25 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
+        <f>E9/G9</f>
         <v>2.1283790862097716</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f>E9/H9</f>
         <v>9.6769441849886277</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
+        <f>E9/I9</f>
         <v>11.571975865820489</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="3"/>
+        <f>D9/J9</f>
         <v>16.654660290322582</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="27">
         <v>69.62</v>
@@ -1843,25 +1842,25 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
-        <f t="shared" si="0"/>
+        <f>E10/G10</f>
         <v>4.8986127042576042</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f>E10/H10</f>
         <v>18.144731944110095</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f>E10/I10</f>
         <v>18.852285597790708</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="3"/>
+        <f>D10/J10</f>
         <v>32.499029726629409</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="27">
         <v>20.81</v>
@@ -1887,19 +1886,19 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
-        <f t="shared" si="0"/>
+        <f>E11/G11</f>
         <v>1.5008294760028542</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f>E11/H11</f>
         <v>12.465692585196161</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f>E11/I11</f>
         <v>14.628656768321264</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="3"/>
+        <f>D11/J11</f>
         <v>23.522198365821652</v>
       </c>
     </row>
@@ -1921,7 +1920,7 @@
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1937,21 +1936,21 @@
         <v>2.9288782592179503</v>
       </c>
       <c r="M13" s="21">
-        <f t="shared" ref="M13:O13" si="4">AVERAGE(M7:M11)</f>
+        <f>AVERAGE(M7:M11)</f>
         <v>13.213164077995524</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(N7:N11)</f>
         <v>15.250024740812815</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(O7:O11)</f>
         <v>23.499038512069568</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1967,63 +1966,63 @@
         <v>2.1655357738462695</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" ref="M14:O14" si="5">MEDIAN(M7:M11)</f>
+        <f>MEDIAN(M7:M11)</f>
         <v>12.465692585196161</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="5"/>
+        <f>MEDIAN(N7:N11)</f>
         <v>14.628656768321264</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="5"/>
+        <f>MEDIAN(O7:O11)</f>
         <v>22.76820798319897</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
         <v>43</v>
       </c>
@@ -2032,10 +2031,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" xr:uid="{43719BCB-47F5-9549-87F6-426C240ED92A}"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>